--- a/references/OtherStudies20150501.xlsx
+++ b/references/OtherStudies20150501.xlsx
@@ -63,9 +63,6 @@
     <t>97,638 women in NIH-AARP cohort, both questionnaires</t>
   </si>
   <si>
-    <t>Strengths/Limitations</t>
-  </si>
-  <si>
     <t>MHT</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>no childhood residential information, number of sunburns, no skin sunburn reactions, or number of nevi</t>
+  </si>
+  <si>
+    <t>Limitations</t>
   </si>
 </sst>
 </file>
@@ -664,11 +664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -690,303 +690,306 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="D2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="150" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:12" ht="150" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7"/>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/references/OtherStudies20150501.xlsx
+++ b/references/OtherStudies20150501.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Outcome</t>
   </si>
@@ -141,9 +141,6 @@
     <t xml:space="preserve">cox proportional hazards with age as time-scale, birth baseline 5 yrs, gender, alcohol intake, years smoked, skin pigmentation, hair colo, personal history of non melanom skin cancer, decades worked, education, proxy childhood and adjust UVR                                </t>
   </si>
   <si>
-    <t>Melanoma risk not associated with age at menarche, age at first use of oral contraceptives, age at first birth, parity, meno status, or HRT use, height, weight, BMI or mean;</t>
-  </si>
-  <si>
     <t>Liu T, 1996, Surg Clin NA</t>
   </si>
   <si>
@@ -256,6 +253,18 @@
   </si>
   <si>
     <t>Limitations</t>
+  </si>
+  <si>
+    <t>Melanoma risk not associated with age at menarche, age at first use of oral contraceptives, age at first birth, parity, meno status, or HRT use, height, weight, BMI</t>
+  </si>
+  <si>
+    <t>parity, age at first birth</t>
+  </si>
+  <si>
+    <t>oral contraceptive use and duration</t>
+  </si>
+  <si>
+    <t>IJE</t>
   </si>
 </sst>
 </file>
@@ -690,54 +699,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="150" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
@@ -746,28 +755,28 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -777,6 +786,9 @@
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
@@ -784,10 +796,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -801,10 +816,10 @@
     </row>
     <row r="7" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -812,19 +827,19 @@
     </row>
     <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -832,10 +847,10 @@
     </row>
     <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
@@ -852,10 +867,10 @@
     </row>
     <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -876,7 +891,7 @@
     <row r="15" spans="1:12" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="112.5" x14ac:dyDescent="0.3">
@@ -967,25 +982,25 @@
     </row>
     <row r="24" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/references/OtherStudies20150501.xlsx
+++ b/references/OtherStudies20150501.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="hrt_aarp_lit_rv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Outcome</t>
   </si>
@@ -30,18 +30,12 @@
     <t>in situ and malignant melanoma</t>
   </si>
   <si>
-    <t>coffee drinking</t>
-  </si>
-  <si>
     <t>Model variables</t>
   </si>
   <si>
     <t>tobacco smoking, alcohol drinking, education, BMI, physical activity, family history of cancer, July erythemal UVR exposure</t>
   </si>
   <si>
-    <t>Sara Schonfeld</t>
-  </si>
-  <si>
     <t>Hormonal and reproductive factors and risk of postmenopausal thyroid cancer in the NIH-AARP Diet and Health Study</t>
   </si>
   <si>
@@ -54,9 +48,6 @@
     <t>attained age as time scale; smoking status, race, education, BMI, alcohol consumption</t>
   </si>
   <si>
-    <t>James V. Lacey Jr.</t>
-  </si>
-  <si>
     <t>214 incident Ovarian Cancer cases</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>186 female cutaneous malignant melanoma cases</t>
   </si>
   <si>
-    <t>population based case-control study in Turin, NW Italy, 186 cases, 205 controls</t>
-  </si>
-  <si>
     <t>Past use of oral contraceptives, longest duration of use, age at first birth, education, parity</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>Menopausal hormone therapy and ovarian cancer risk in the NIH-AARP Diet and Health study cohort</t>
   </si>
   <si>
-    <t>Trabert, 2012, BJC</t>
-  </si>
-  <si>
     <t>Ovarian cancer and menopausal hormone therapy in the NIH-AARP diet and health study</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t xml:space="preserve">cox proportional hazards with age as time-scale, birth baseline 5 yrs, gender, alcohol intake, years smoked, skin pigmentation, hair colo, personal history of non melanom skin cancer, decades worked, education, proxy childhood and adjust UVR                                </t>
   </si>
   <si>
-    <t>Liu T, 1996, Surg Clin NA</t>
-  </si>
-  <si>
     <t>Epidemiology of malignant melanoma</t>
   </si>
   <si>
@@ -168,9 +150,6 @@
     <t>cutaneous melanoma</t>
   </si>
   <si>
-    <t>endogenous hormonal factors (</t>
-  </si>
-  <si>
     <t>Study Population</t>
   </si>
   <si>
@@ -207,9 +186,6 @@
     <t>Cancer Causes Control</t>
   </si>
   <si>
-    <t>Freedman, 2003</t>
-  </si>
-  <si>
     <t>Erikka Loftfield, 2015</t>
   </si>
   <si>
@@ -222,9 +198,6 @@
     <t>Gandini, 2005</t>
   </si>
   <si>
-    <t>Kvaskoff, 2010</t>
-  </si>
-  <si>
     <t>Int J Clinical Exp Med</t>
   </si>
   <si>
@@ -265,13 +238,202 @@
   </si>
   <si>
     <t>IJE</t>
+  </si>
+  <si>
+    <t>Hormonal and reproductive factors in relation to melanoma in women: current review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>population based case-control study in Turin, NW Italy, 186 cases, 205 controls from May 1984 to October 1987</t>
+  </si>
+  <si>
+    <t>duration of OC use not associated with melanoma</t>
+  </si>
+  <si>
+    <t>skin reaction to sun exposure, weeks of holiday on the beach</t>
+  </si>
+  <si>
+    <t>no direct UVR measures, does not take into account age at menarche, and MHT use</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reduced melanoma risk with higher age at menarche (15+) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(RR=0.67, 95% CI: 0.46-0.97)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, irregular menstrual cycles (RR=0.52, 95% CI: 0.31-0.89), and shorter ovulatory life </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(RR=0.51, 95% CI: 0.28-0.91)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (&lt;33 yrs </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 39+), no evidence of association between melanoma and age at first birth, pregnancy, age at last birth, time since last birth, breastfeeding duration, age at menstruation regularity and menopausal status</t>
+    </r>
+  </si>
+  <si>
+    <t>E3N cohort, 91,972 French women (insurance health plan primarily covering teachers)</t>
+  </si>
+  <si>
+    <t>ovulatory life computed as age at natural menopause minus age at menarche</t>
+  </si>
+  <si>
+    <t>460 melanoma cases ascertained from 1990 to 2005, 80.8% invasive tumors</t>
+  </si>
+  <si>
+    <r>
+      <t>regions of birth and baseline residence linked to daily mean UVR dose in French departments from Joint Research Centre of the European Commission (kJ/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>age at menarche, parity, age at pregnancies, menopausal status and age at menopause, breastfeeding</t>
+  </si>
+  <si>
+    <t>Marina Kvaskoff, 2010</t>
+  </si>
+  <si>
+    <t>Michal Freedman, 2003</t>
+  </si>
+  <si>
+    <t>Surg Clin NA</t>
+  </si>
+  <si>
+    <t>Liu Tiepu, 1996,</t>
+  </si>
+  <si>
+    <t>Trabert, 2012</t>
+  </si>
+  <si>
+    <t>BJC</t>
+  </si>
+  <si>
+    <t>Cancer Epi</t>
+  </si>
+  <si>
+    <t>Sara Schonfeld, 2011</t>
+  </si>
+  <si>
+    <t>James V. Lacey Jr., 2014</t>
+  </si>
+  <si>
+    <t>J Steroid Biochem and Mole Bio</t>
+  </si>
+  <si>
+    <t>meta-analysis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pooled </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RR=1.47, 95% CI: 1.07-2.02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for oldest vs youngest age at first birth</t>
+    </r>
+  </si>
+  <si>
+    <t>no OC or MHT use</t>
+  </si>
+  <si>
+    <t>different results for different regions (Australia especially)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +464,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +494,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -336,11 +520,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,9 +565,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -368,6 +573,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,17 +893,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="2" customWidth="1"/>
@@ -697,316 +917,381 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
+      <c r="E1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="150" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" ht="112.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
